--- a/IceCreamFaves.xlsx
+++ b/IceCreamFaves.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/01-Ins_GitHub/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramir\Downloads\01-Excel-Class_3_Activities\01-Excel-Class_3_Activities\01-Ins_GitHub\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6003D3-E62E-E34E-A321-E4F2265EBF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B675BA09-73A6-4652-B69B-C3DD91C7F771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="1700" windowWidth="14620" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Vanilla</t>
   </si>
@@ -82,13 +82,19 @@
   </si>
   <si>
     <t>Percentage of Total</t>
+  </si>
+  <si>
+    <t>add some nonsense</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +115,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -133,12 +146,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,26 +211,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C11">
     <sortCondition descending="1" ref="C1:C11"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Flavor"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Number of Faves"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Percentage of Total" dataDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>B2/$A$15</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="4" xr3:uid="{D44C4EF6-388E-472D-A42D-66A571E0EEA4}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,7 +269,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -358,7 +375,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -500,7 +517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -511,17 +528,17 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="8" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -531,10 +548,12 @@
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -546,7 +565,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -558,7 +577,7 @@
         <v>0.15666666666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -570,7 +589,7 @@
         <v>0.13166666666666665</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -581,8 +600,11 @@
         <f t="shared" si="0"/>
         <v>0.11166666666666666</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -594,7 +616,7 @@
         <v>0.10666666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -606,7 +628,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -618,7 +640,7 @@
         <v>8.8333333333333333E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -630,7 +652,7 @@
         <v>6.8333333333333329E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -642,7 +664,7 @@
         <v>5.6666666666666664E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -654,12 +676,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>SUM(B2:B11)</f>
         <v>600</v>
